--- a/data/problem1_result.xlsx
+++ b/data/problem1_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\数学建模\2026MCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D604C16B-DACE-4ACD-A300-0523E0E2D6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43369443-9D8F-4483-BB1E-033F8DDE3168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,59 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Target_Completion_Year</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>x_t</t>
+  </si>
+  <si>
+    <t>y_t</t>
+  </si>
+  <si>
+    <t>Annual_SE_Cost</t>
+  </si>
+  <si>
+    <t>Annual_Rocket_Cost</t>
+  </si>
+  <si>
+    <t>法属圭亚那</t>
+  </si>
+  <si>
+    <t>印度萨迪什</t>
+  </si>
+  <si>
+    <t>德州</t>
+  </si>
+  <si>
+    <t>佛罗里达</t>
+  </si>
+  <si>
+    <t>加州</t>
+  </si>
+  <si>
+    <t>弗吉尼亚</t>
+  </si>
+  <si>
+    <t>中国太原</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>新西兰马希亚</t>
+  </si>
+  <si>
+    <t>阿拉斯加</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,62 +397,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>2141</v>
-      </c>
-      <c r="B1">
-        <v>2051</v>
-      </c>
-      <c r="C1">
-        <v>536999.24820105254</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>32219954892.063148</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -407,7 +460,7 @@
         <v>2141</v>
       </c>
       <c r="B2">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C2">
         <v>536999.24820105254</v>
@@ -457,7 +510,7 @@
         <v>2141</v>
       </c>
       <c r="B3">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C3">
         <v>536999.24820105254</v>
@@ -507,7 +560,7 @@
         <v>2141</v>
       </c>
       <c r="B4">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C4">
         <v>536999.24820105254</v>
@@ -557,7 +610,7 @@
         <v>2141</v>
       </c>
       <c r="B5">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C5">
         <v>536999.24820105254</v>
@@ -607,7 +660,7 @@
         <v>2141</v>
       </c>
       <c r="B6">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C6">
         <v>536999.24820105254</v>
@@ -657,7 +710,7 @@
         <v>2141</v>
       </c>
       <c r="B7">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C7">
         <v>536999.24820105254</v>
@@ -707,7 +760,7 @@
         <v>2141</v>
       </c>
       <c r="B8">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C8">
         <v>536999.24820105254</v>
@@ -757,7 +810,7 @@
         <v>2141</v>
       </c>
       <c r="B9">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C9">
         <v>536999.24820105254</v>
@@ -807,7 +860,7 @@
         <v>2141</v>
       </c>
       <c r="B10">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C10">
         <v>536999.24820105254</v>
@@ -857,7 +910,7 @@
         <v>2141</v>
       </c>
       <c r="B11">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C11">
         <v>536999.24820105254</v>
@@ -907,7 +960,7 @@
         <v>2141</v>
       </c>
       <c r="B12">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C12">
         <v>536999.24820105254</v>
@@ -957,7 +1010,7 @@
         <v>2141</v>
       </c>
       <c r="B13">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C13">
         <v>536999.24820105254</v>
@@ -1007,7 +1060,7 @@
         <v>2141</v>
       </c>
       <c r="B14">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C14">
         <v>536999.24820105254</v>
@@ -1057,7 +1110,7 @@
         <v>2141</v>
       </c>
       <c r="B15">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C15">
         <v>536999.24820105254</v>
@@ -1107,7 +1160,7 @@
         <v>2141</v>
       </c>
       <c r="B16">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C16">
         <v>536999.24820105254</v>
@@ -1157,7 +1210,7 @@
         <v>2141</v>
       </c>
       <c r="B17">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C17">
         <v>536999.24820105254</v>
@@ -1207,7 +1260,7 @@
         <v>2141</v>
       </c>
       <c r="B18">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C18">
         <v>536999.24820105254</v>
@@ -1257,7 +1310,7 @@
         <v>2141</v>
       </c>
       <c r="B19">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C19">
         <v>536999.24820105254</v>
@@ -1307,7 +1360,7 @@
         <v>2141</v>
       </c>
       <c r="B20">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C20">
         <v>536999.24820105254</v>
@@ -1357,7 +1410,7 @@
         <v>2141</v>
       </c>
       <c r="B21">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C21">
         <v>536999.24820105254</v>
@@ -1407,7 +1460,7 @@
         <v>2141</v>
       </c>
       <c r="B22">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C22">
         <v>536999.24820105254</v>
@@ -1457,7 +1510,7 @@
         <v>2141</v>
       </c>
       <c r="B23">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C23">
         <v>536999.24820105254</v>
@@ -1507,7 +1560,7 @@
         <v>2141</v>
       </c>
       <c r="B24">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C24">
         <v>536999.24820105254</v>
@@ -1557,7 +1610,7 @@
         <v>2141</v>
       </c>
       <c r="B25">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C25">
         <v>536999.24820105254</v>
@@ -1607,31 +1660,31 @@
         <v>2141</v>
       </c>
       <c r="B26">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C26">
         <v>536999.24820105254</v>
       </c>
       <c r="D26">
-        <v>351818.41370421648</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>32219954892.063148</v>
       </c>
       <c r="F26">
-        <v>99907701320.671692</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>81250</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>20568.41370421648</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1657,19 +1710,19 @@
         <v>2141</v>
       </c>
       <c r="B27">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C27">
         <v>536999.24820105254</v>
       </c>
       <c r="D27">
-        <v>781250</v>
+        <v>351818.41370421648</v>
       </c>
       <c r="E27">
         <v>32219954892.063148</v>
       </c>
       <c r="F27">
-        <v>267363200754.80301</v>
+        <v>99907701320.671692</v>
       </c>
       <c r="G27">
         <v>100000</v>
@@ -1681,25 +1734,25 @@
         <v>150000</v>
       </c>
       <c r="J27">
-        <v>187500</v>
+        <v>20568.41370421648</v>
       </c>
       <c r="K27">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>37500</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>43750</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>37500</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>18750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -1707,7 +1760,7 @@
         <v>2141</v>
       </c>
       <c r="B28">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C28">
         <v>536999.24820105254</v>
@@ -1719,7 +1772,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F28">
-        <v>265490549546.83578</v>
+        <v>267363200754.80301</v>
       </c>
       <c r="G28">
         <v>100000</v>
@@ -1757,7 +1810,7 @@
         <v>2141</v>
       </c>
       <c r="B29">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C29">
         <v>536999.24820105254</v>
@@ -1769,7 +1822,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F29">
-        <v>263693848204.28629</v>
+        <v>265490549546.83578</v>
       </c>
       <c r="G29">
         <v>100000</v>
@@ -1807,7 +1860,7 @@
         <v>2141</v>
       </c>
       <c r="B30">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C30">
         <v>536999.24820105254</v>
@@ -1819,7 +1872,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F30">
-        <v>261967634269.8967</v>
+        <v>263693848204.28629</v>
       </c>
       <c r="G30">
         <v>100000</v>
@@ -1857,7 +1910,7 @@
         <v>2141</v>
       </c>
       <c r="B31">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="C31">
         <v>536999.24820105254</v>
@@ -1869,7 +1922,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F31">
-        <v>260306998659.48141</v>
+        <v>261967634269.8967</v>
       </c>
       <c r="G31">
         <v>100000</v>
@@ -1907,7 +1960,7 @@
         <v>2141</v>
       </c>
       <c r="B32">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C32">
         <v>536999.24820105254</v>
@@ -1919,7 +1972,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F32">
-        <v>258707514338.79089</v>
+        <v>260306998659.48141</v>
       </c>
       <c r="G32">
         <v>100000</v>
@@ -1957,7 +2010,7 @@
         <v>2141</v>
       </c>
       <c r="B33">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C33">
         <v>536999.24820105254</v>
@@ -1969,7 +2022,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F33">
-        <v>257165176043.46051</v>
+        <v>258707514338.79089</v>
       </c>
       <c r="G33">
         <v>100000</v>
@@ -2007,7 +2060,7 @@
         <v>2141</v>
       </c>
       <c r="B34">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C34">
         <v>536999.24820105254</v>
@@ -2019,7 +2072,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F34">
-        <v>255676349062.26291</v>
+        <v>257165176043.46051</v>
       </c>
       <c r="G34">
         <v>100000</v>
@@ -2057,7 +2110,7 @@
         <v>2141</v>
       </c>
       <c r="B35">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="C35">
         <v>536999.24820105254</v>
@@ -2069,7 +2122,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F35">
-        <v>254237725504.49759</v>
+        <v>255676349062.26291</v>
       </c>
       <c r="G35">
         <v>100000</v>
@@ -2107,7 +2160,7 @@
         <v>2141</v>
       </c>
       <c r="B36">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C36">
         <v>536999.24820105254</v>
@@ -2119,7 +2172,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F36">
-        <v>252846286783.15829</v>
+        <v>254237725504.49759</v>
       </c>
       <c r="G36">
         <v>100000</v>
@@ -2157,7 +2210,7 @@
         <v>2141</v>
       </c>
       <c r="B37">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C37">
         <v>536999.24820105254</v>
@@ -2169,7 +2222,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F37">
-        <v>251499271288.5098</v>
+        <v>252846286783.15829</v>
       </c>
       <c r="G37">
         <v>100000</v>
@@ -2207,7 +2260,7 @@
         <v>2141</v>
       </c>
       <c r="B38">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C38">
         <v>536999.24820105254</v>
@@ -2219,7 +2272,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F38">
-        <v>250194146418.0528</v>
+        <v>251499271288.5098</v>
       </c>
       <c r="G38">
         <v>100000</v>
@@ -2257,7 +2310,7 @@
         <v>2141</v>
       </c>
       <c r="B39">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C39">
         <v>536999.24820105254</v>
@@ -2269,7 +2322,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F39">
-        <v>248928584280.5574</v>
+        <v>250194146418.0528</v>
       </c>
       <c r="G39">
         <v>100000</v>
@@ -2307,7 +2360,7 @@
         <v>2141</v>
       </c>
       <c r="B40">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C40">
         <v>536999.24820105254</v>
@@ -2319,7 +2372,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F40">
-        <v>247700440512.8981</v>
+        <v>248928584280.5574</v>
       </c>
       <c r="G40">
         <v>100000</v>
@@ -2357,7 +2410,7 @@
         <v>2141</v>
       </c>
       <c r="B41">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C41">
         <v>536999.24820105254</v>
@@ -2369,7 +2422,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F41">
-        <v>246507735745.6044</v>
+        <v>247700440512.8981</v>
       </c>
       <c r="G41">
         <v>100000</v>
@@ -2407,7 +2460,7 @@
         <v>2141</v>
       </c>
       <c r="B42">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C42">
         <v>536999.24820105254</v>
@@ -2419,7 +2472,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F42">
-        <v>245348639331.5033</v>
+        <v>246507735745.6044</v>
       </c>
       <c r="G42">
         <v>100000</v>
@@ -2457,7 +2510,7 @@
         <v>2141</v>
       </c>
       <c r="B43">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C43">
         <v>536999.24820105254</v>
@@ -2469,7 +2522,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F43">
-        <v>244221455015.53809</v>
+        <v>245348639331.5033</v>
       </c>
       <c r="G43">
         <v>100000</v>
@@ -2507,7 +2560,7 @@
         <v>2141</v>
       </c>
       <c r="B44">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="C44">
         <v>536999.24820105254</v>
@@ -2519,7 +2572,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F44">
-        <v>243124608275.83051</v>
+        <v>244221455015.53809</v>
       </c>
       <c r="G44">
         <v>100000</v>
@@ -2557,7 +2610,7 @@
         <v>2141</v>
       </c>
       <c r="B45">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C45">
         <v>536999.24820105254</v>
@@ -2569,7 +2622,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F45">
-        <v>242056635108.689</v>
+        <v>243124608275.83051</v>
       </c>
       <c r="G45">
         <v>100000</v>
@@ -2607,7 +2660,7 @@
         <v>2141</v>
       </c>
       <c r="B46">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C46">
         <v>536999.24820105254</v>
@@ -2619,7 +2672,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F46">
-        <v>241016172065.3956</v>
+        <v>242056635108.689</v>
       </c>
       <c r="G46">
         <v>100000</v>
@@ -2657,7 +2710,7 @@
         <v>2141</v>
       </c>
       <c r="B47">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="C47">
         <v>536999.24820105254</v>
@@ -2669,7 +2722,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F47">
-        <v>240001947377.68188</v>
+        <v>241016172065.3956</v>
       </c>
       <c r="G47">
         <v>100000</v>
@@ -2707,7 +2760,7 @@
         <v>2141</v>
       </c>
       <c r="B48">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C48">
         <v>536999.24820105254</v>
@@ -2719,7 +2772,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F48">
-        <v>239012773032.9689</v>
+        <v>240001947377.68188</v>
       </c>
       <c r="G48">
         <v>100000</v>
@@ -2757,7 +2810,7 @@
         <v>2141</v>
       </c>
       <c r="B49">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C49">
         <v>536999.24820105254</v>
@@ -2769,7 +2822,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F49">
-        <v>238047537680.6221</v>
+        <v>239012773032.9689</v>
       </c>
       <c r="G49">
         <v>100000</v>
@@ -2807,7 +2860,7 @@
         <v>2141</v>
       </c>
       <c r="B50">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C50">
         <v>536999.24820105254</v>
@@ -2819,7 +2872,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F50">
-        <v>237105200267.3721</v>
+        <v>238047537680.6221</v>
       </c>
       <c r="G50">
         <v>100000</v>
@@ -2857,7 +2910,7 @@
         <v>2141</v>
       </c>
       <c r="B51">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C51">
         <v>536999.24820105254</v>
@@ -2869,7 +2922,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F51">
-        <v>236184784314.26682</v>
+        <v>237105200267.3721</v>
       </c>
       <c r="G51">
         <v>100000</v>
@@ -2907,7 +2960,7 @@
         <v>2141</v>
       </c>
       <c r="B52">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C52">
         <v>536999.24820105254</v>
@@ -2919,7 +2972,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F52">
-        <v>235285372759.52011</v>
+        <v>236184784314.26682</v>
       </c>
       <c r="G52">
         <v>100000</v>
@@ -2957,7 +3010,7 @@
         <v>2141</v>
       </c>
       <c r="B53">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C53">
         <v>536999.24820105254</v>
@@ -2969,7 +3022,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F53">
-        <v>234406103301.78491</v>
+        <v>235285372759.52011</v>
       </c>
       <c r="G53">
         <v>100000</v>
@@ -3007,7 +3060,7 @@
         <v>2141</v>
       </c>
       <c r="B54">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C54">
         <v>536999.24820105254</v>
@@ -3019,7 +3072,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F54">
-        <v>233546164187.0126</v>
+        <v>234406103301.78491</v>
       </c>
       <c r="G54">
         <v>100000</v>
@@ -3057,7 +3110,7 @@
         <v>2141</v>
       </c>
       <c r="B55">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C55">
         <v>536999.24820105254</v>
@@ -3069,7 +3122,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F55">
-        <v>232704790389.4241</v>
+        <v>233546164187.0126</v>
       </c>
       <c r="G55">
         <v>100000</v>
@@ -3107,7 +3160,7 @@
         <v>2141</v>
       </c>
       <c r="B56">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="C56">
         <v>536999.24820105254</v>
@@ -3119,7 +3172,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F56">
-        <v>231881260143.41299</v>
+        <v>232704790389.4241</v>
       </c>
       <c r="G56">
         <v>100000</v>
@@ -3157,7 +3210,7 @@
         <v>2141</v>
       </c>
       <c r="B57">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="C57">
         <v>536999.24820105254</v>
@@ -3169,7 +3222,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F57">
-        <v>231074891788.59839</v>
+        <v>231881260143.41299</v>
       </c>
       <c r="G57">
         <v>100000</v>
@@ -3207,7 +3260,7 @@
         <v>2141</v>
       </c>
       <c r="B58">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="C58">
         <v>536999.24820105254</v>
@@ -3219,7 +3272,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F58">
-        <v>230285040894.89011</v>
+        <v>231074891788.59839</v>
       </c>
       <c r="G58">
         <v>100000</v>
@@ -3257,7 +3310,7 @@
         <v>2141</v>
       </c>
       <c r="B59">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C59">
         <v>536999.24820105254</v>
@@ -3269,7 +3322,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F59">
-        <v>229511097638.43109</v>
+        <v>230285040894.89011</v>
       </c>
       <c r="G59">
         <v>100000</v>
@@ -3307,7 +3360,7 @@
         <v>2141</v>
       </c>
       <c r="B60">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="C60">
         <v>536999.24820105254</v>
@@ -3319,7 +3372,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F60">
-        <v>228752484402.7457</v>
+        <v>229511097638.43109</v>
       </c>
       <c r="G60">
         <v>100000</v>
@@ -3357,7 +3410,7 @@
         <v>2141</v>
       </c>
       <c r="B61">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="C61">
         <v>536999.24820105254</v>
@@ -3369,7 +3422,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F61">
-        <v>228008653582.4227</v>
+        <v>228752484402.7457</v>
       </c>
       <c r="G61">
         <v>100000</v>
@@ -3407,7 +3460,7 @@
         <v>2141</v>
       </c>
       <c r="B62">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="C62">
         <v>536999.24820105254</v>
@@ -3419,7 +3472,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F62">
-        <v>227279085569.26981</v>
+        <v>228008653582.4227</v>
       </c>
       <c r="G62">
         <v>100000</v>
@@ -3457,7 +3510,7 @@
         <v>2141</v>
       </c>
       <c r="B63">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C63">
         <v>536999.24820105254</v>
@@ -3469,7 +3522,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F63">
-        <v>226563286903.14911</v>
+        <v>227279085569.26981</v>
       </c>
       <c r="G63">
         <v>100000</v>
@@ -3507,7 +3560,7 @@
         <v>2141</v>
       </c>
       <c r="B64">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C64">
         <v>536999.24820105254</v>
@@ -3519,7 +3572,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F64">
-        <v>225860788571.68579</v>
+        <v>226563286903.14911</v>
       </c>
       <c r="G64">
         <v>100000</v>
@@ -3557,7 +3610,7 @@
         <v>2141</v>
       </c>
       <c r="B65">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C65">
         <v>536999.24820105254</v>
@@ -3569,7 +3622,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F65">
-        <v>225171144444.77551</v>
+        <v>225860788571.68579</v>
       </c>
       <c r="G65">
         <v>100000</v>
@@ -3607,7 +3660,7 @@
         <v>2141</v>
       </c>
       <c r="B66">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C66">
         <v>536999.24820105254</v>
@@ -3619,7 +3672,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F66">
-        <v>224493929831.3428</v>
+        <v>225171144444.77551</v>
       </c>
       <c r="G66">
         <v>100000</v>
@@ -3657,7 +3710,7 @@
         <v>2141</v>
       </c>
       <c r="B67">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C67">
         <v>536999.24820105254</v>
@@ -3669,7 +3722,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F67">
-        <v>223828740147.13391</v>
+        <v>224493929831.3428</v>
       </c>
       <c r="G67">
         <v>100000</v>
@@ -3707,7 +3760,7 @@
         <v>2141</v>
       </c>
       <c r="B68">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C68">
         <v>536999.24820105254</v>
@@ -3719,7 +3772,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F68">
-        <v>223175189683.5076</v>
+        <v>223828740147.13391</v>
       </c>
       <c r="G68">
         <v>100000</v>
@@ -3757,7 +3810,7 @@
         <v>2141</v>
       </c>
       <c r="B69">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C69">
         <v>536999.24820105254</v>
@@ -3769,7 +3822,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F69">
-        <v>222532910468.22672</v>
+        <v>223175189683.5076</v>
       </c>
       <c r="G69">
         <v>100000</v>
@@ -3807,7 +3860,7 @@
         <v>2141</v>
       </c>
       <c r="B70">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="C70">
         <v>536999.24820105254</v>
@@ -3819,7 +3872,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F70">
-        <v>221901551210.16971</v>
+        <v>222532910468.22672</v>
       </c>
       <c r="G70">
         <v>100000</v>
@@ -3857,7 +3910,7 @@
         <v>2141</v>
       </c>
       <c r="B71">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C71">
         <v>536999.24820105254</v>
@@ -3869,7 +3922,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F71">
-        <v>221280776320.69281</v>
+        <v>221901551210.16971</v>
       </c>
       <c r="G71">
         <v>100000</v>
@@ -3907,7 +3960,7 @@
         <v>2141</v>
       </c>
       <c r="B72">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C72">
         <v>536999.24820105254</v>
@@ -3919,7 +3972,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F72">
-        <v>220670265005.09799</v>
+        <v>221280776320.69281</v>
       </c>
       <c r="G72">
         <v>100000</v>
@@ -3957,7 +4010,7 @@
         <v>2141</v>
       </c>
       <c r="B73">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C73">
         <v>536999.24820105254</v>
@@ -3969,7 +4022,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F73">
-        <v>220069710418.2991</v>
+        <v>220670265005.09799</v>
       </c>
       <c r="G73">
         <v>100000</v>
@@ -4007,7 +4060,7 @@
         <v>2141</v>
       </c>
       <c r="B74">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="C74">
         <v>536999.24820105254</v>
@@ -4019,7 +4072,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F74">
-        <v>219478818879.34961</v>
+        <v>220069710418.2991</v>
       </c>
       <c r="G74">
         <v>100000</v>
@@ -4057,7 +4110,7 @@
         <v>2141</v>
       </c>
       <c r="B75">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C75">
         <v>536999.24820105254</v>
@@ -4069,7 +4122,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F75">
-        <v>218897309140.0058</v>
+        <v>219478818879.34961</v>
       </c>
       <c r="G75">
         <v>100000</v>
@@ -4107,7 +4160,7 @@
         <v>2141</v>
       </c>
       <c r="B76">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="C76">
         <v>536999.24820105254</v>
@@ -4119,7 +4172,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F76">
-        <v>218324911702.94901</v>
+        <v>218897309140.0058</v>
       </c>
       <c r="G76">
         <v>100000</v>
@@ -4157,7 +4210,7 @@
         <v>2141</v>
       </c>
       <c r="B77">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C77">
         <v>536999.24820105254</v>
@@ -4169,7 +4222,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F77">
-        <v>217761368185.69989</v>
+        <v>218324911702.94901</v>
       </c>
       <c r="G77">
         <v>100000</v>
@@ -4207,7 +4260,7 @@
         <v>2141</v>
       </c>
       <c r="B78">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="C78">
         <v>536999.24820105254</v>
@@ -4219,7 +4272,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F78">
-        <v>217206430726.62051</v>
+        <v>217761368185.69989</v>
       </c>
       <c r="G78">
         <v>100000</v>
@@ -4257,7 +4310,7 @@
         <v>2141</v>
       </c>
       <c r="B79">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="C79">
         <v>536999.24820105254</v>
@@ -4269,7 +4322,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F79">
-        <v>216659861429.7243</v>
+        <v>217206430726.62051</v>
       </c>
       <c r="G79">
         <v>100000</v>
@@ -4307,7 +4360,7 @@
         <v>2141</v>
       </c>
       <c r="B80">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C80">
         <v>536999.24820105254</v>
@@ -4319,7 +4372,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F80">
-        <v>216121431845.31049</v>
+        <v>216659861429.7243</v>
       </c>
       <c r="G80">
         <v>100000</v>
@@ -4357,7 +4410,7 @@
         <v>2141</v>
       </c>
       <c r="B81">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C81">
         <v>536999.24820105254</v>
@@ -4369,7 +4422,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F81">
-        <v>215590922483.69739</v>
+        <v>216121431845.31049</v>
       </c>
       <c r="G81">
         <v>100000</v>
@@ -4407,7 +4460,7 @@
         <v>2141</v>
       </c>
       <c r="B82">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C82">
         <v>536999.24820105254</v>
@@ -4419,7 +4472,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F82">
-        <v>215068122359.57321</v>
+        <v>215590922483.69739</v>
       </c>
       <c r="G82">
         <v>100000</v>
@@ -4457,7 +4510,7 @@
         <v>2141</v>
       </c>
       <c r="B83">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C83">
         <v>536999.24820105254</v>
@@ -4469,7 +4522,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F83">
-        <v>214552828564.69141</v>
+        <v>215068122359.57321</v>
       </c>
       <c r="G83">
         <v>100000</v>
@@ -4507,7 +4560,7 @@
         <v>2141</v>
       </c>
       <c r="B84">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C84">
         <v>536999.24820105254</v>
@@ -4519,7 +4572,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F84">
-        <v>214044845866.8338</v>
+        <v>214552828564.69141</v>
       </c>
       <c r="G84">
         <v>100000</v>
@@ -4557,7 +4610,7 @@
         <v>2141</v>
       </c>
       <c r="B85">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="C85">
         <v>536999.24820105254</v>
@@ -4569,7 +4622,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F85">
-        <v>213543986333.1387</v>
+        <v>214044845866.8338</v>
       </c>
       <c r="G85">
         <v>100000</v>
@@ -4607,7 +4660,7 @@
         <v>2141</v>
       </c>
       <c r="B86">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="C86">
         <v>536999.24820105254</v>
@@ -4619,7 +4672,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F86">
-        <v>213050068976.04871</v>
+        <v>213543986333.1387</v>
       </c>
       <c r="G86">
         <v>100000</v>
@@ -4657,7 +4710,7 @@
         <v>2141</v>
       </c>
       <c r="B87">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C87">
         <v>536999.24820105254</v>
@@ -4669,7 +4722,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F87">
-        <v>212562919420.2785</v>
+        <v>213050068976.04871</v>
       </c>
       <c r="G87">
         <v>100000</v>
@@ -4707,7 +4760,7 @@
         <v>2141</v>
       </c>
       <c r="B88">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C88">
         <v>536999.24820105254</v>
@@ -4719,7 +4772,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F88">
-        <v>212082369589.3298</v>
+        <v>212562919420.2785</v>
       </c>
       <c r="G88">
         <v>100000</v>
@@ -4757,7 +4810,7 @@
         <v>2141</v>
       </c>
       <c r="B89">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C89">
         <v>536999.24820105254</v>
@@ -4769,7 +4822,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F89">
-        <v>211608257410.20239</v>
+        <v>212082369589.3298</v>
       </c>
       <c r="G89">
         <v>100000</v>
@@ -4807,7 +4860,7 @@
         <v>2141</v>
       </c>
       <c r="B90">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="C90">
         <v>536999.24820105254</v>
@@ -4819,7 +4872,7 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F90">
-        <v>211140426535.0546</v>
+        <v>211608257410.20239</v>
       </c>
       <c r="G90">
         <v>100000</v>
@@ -4857,7 +4910,7 @@
         <v>2141</v>
       </c>
       <c r="B91">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C91">
         <v>536999.24820105254</v>
@@ -4869,36 +4922,86 @@
         <v>32219954892.063148</v>
       </c>
       <c r="F91">
+        <v>211140426535.0546</v>
+      </c>
+      <c r="G91">
+        <v>100000</v>
+      </c>
+      <c r="H91">
+        <v>81250</v>
+      </c>
+      <c r="I91">
+        <v>150000</v>
+      </c>
+      <c r="J91">
+        <v>187500</v>
+      </c>
+      <c r="K91">
+        <v>75000</v>
+      </c>
+      <c r="L91">
+        <v>37500</v>
+      </c>
+      <c r="M91">
+        <v>43750</v>
+      </c>
+      <c r="N91">
+        <v>50000</v>
+      </c>
+      <c r="O91">
+        <v>37500</v>
+      </c>
+      <c r="P91">
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2141</v>
+      </c>
+      <c r="B92">
+        <v>2141</v>
+      </c>
+      <c r="C92">
+        <v>536999.24820105254</v>
+      </c>
+      <c r="D92">
+        <v>781250</v>
+      </c>
+      <c r="E92">
+        <v>32219954892.063148</v>
+      </c>
+      <c r="F92">
         <v>210678726078.6669</v>
       </c>
-      <c r="G91">
-        <v>100000</v>
-      </c>
-      <c r="H91">
-        <v>81250</v>
-      </c>
-      <c r="I91">
-        <v>150000</v>
-      </c>
-      <c r="J91">
-        <v>187500</v>
-      </c>
-      <c r="K91">
-        <v>75000</v>
-      </c>
-      <c r="L91">
-        <v>37500</v>
-      </c>
-      <c r="M91">
-        <v>43750</v>
-      </c>
-      <c r="N91">
-        <v>50000</v>
-      </c>
-      <c r="O91">
-        <v>37500</v>
-      </c>
-      <c r="P91">
+      <c r="G92">
+        <v>100000</v>
+      </c>
+      <c r="H92">
+        <v>81250</v>
+      </c>
+      <c r="I92">
+        <v>150000</v>
+      </c>
+      <c r="J92">
+        <v>187500</v>
+      </c>
+      <c r="K92">
+        <v>75000</v>
+      </c>
+      <c r="L92">
+        <v>37500</v>
+      </c>
+      <c r="M92">
+        <v>43750</v>
+      </c>
+      <c r="N92">
+        <v>50000</v>
+      </c>
+      <c r="O92">
+        <v>37500</v>
+      </c>
+      <c r="P92">
         <v>18750</v>
       </c>
     </row>
